--- a/用例数据/沪A/ETF业务/基金收益/使用cil/测试数据.xlsx
+++ b/用例数据/沪A/ETF业务/基金收益/使用cil/测试数据.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="货币ETF" sheetId="2" r:id="rId1"/>
-    <sheet name="tradinglog" sheetId="3" r:id="rId2"/>
+    <sheet name="stklist" sheetId="4" r:id="rId2"/>
+    <sheet name="tradinglog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="261">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -802,6 +803,10 @@
   </si>
   <si>
     <t>tradinglog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_002_012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,29 +1166,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>243</v>
       </c>
@@ -1943,7 +1948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -2601,7 +2606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>250</v>
       </c>
@@ -2930,7 +2935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -3265,14 +3270,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4184,278 +4189,278 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4465,15 +4470,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4892,12 +4913,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -5221,7 +5242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>241</v>
       </c>
@@ -5544,7 +5565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>242</v>
       </c>
@@ -5867,7 +5888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -6190,7 +6211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>193</v>
       </c>
